--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H2">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I2">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J2">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N2">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O2">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P2">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q2">
-        <v>21.83728604315733</v>
+        <v>10.65551732932367</v>
       </c>
       <c r="R2">
-        <v>196.535574388416</v>
+        <v>95.89965596391302</v>
       </c>
       <c r="S2">
-        <v>0.002445355682936362</v>
+        <v>0.001117774665067834</v>
       </c>
       <c r="T2">
-        <v>0.002492440470236554</v>
+        <v>0.001141637519342808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H3">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I3">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J3">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.928926</v>
       </c>
       <c r="O3">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P3">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q3">
-        <v>12.05606786242133</v>
+        <v>7.106748956407333</v>
       </c>
       <c r="R3">
-        <v>108.504610761792</v>
+        <v>63.960740607666</v>
       </c>
       <c r="S3">
-        <v>0.001350047528936242</v>
+        <v>0.0007455052334820419</v>
       </c>
       <c r="T3">
-        <v>0.001376042397980725</v>
+        <v>0.0007614206798629392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H4">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I4">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J4">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N4">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O4">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P4">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q4">
-        <v>89.34684707611376</v>
+        <v>64.7926635159849</v>
       </c>
       <c r="R4">
-        <v>804.1216236850238</v>
+        <v>583.133971643864</v>
       </c>
       <c r="S4">
-        <v>0.01000512700242266</v>
+        <v>0.006796816665214863</v>
       </c>
       <c r="T4">
-        <v>0.01019777352828707</v>
+        <v>0.006941918760193815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H5">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I5">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J5">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N5">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O5">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P5">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q5">
-        <v>8.56607519312</v>
+        <v>4.183539933692167</v>
       </c>
       <c r="R5">
-        <v>51.39645115872</v>
+        <v>25.101239602153</v>
       </c>
       <c r="S5">
-        <v>0.0009592355301184472</v>
+        <v>0.0004388576174815797</v>
       </c>
       <c r="T5">
-        <v>0.0006518035998987095</v>
+        <v>0.0002988177238364113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H6">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I6">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J6">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N6">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O6">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P6">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q6">
-        <v>118.2939753541511</v>
+        <v>75.78870359622545</v>
       </c>
       <c r="R6">
-        <v>1064.64577818736</v>
+        <v>682.0983323660291</v>
       </c>
       <c r="S6">
-        <v>0.01324664815571483</v>
+        <v>0.007950312515100878</v>
       </c>
       <c r="T6">
-        <v>0.0135017094603768</v>
+        <v>0.008120040059405921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H7">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I7">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J7">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N7">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O7">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P7">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q7">
-        <v>60.15260417782132</v>
+        <v>49.79262476757467</v>
       </c>
       <c r="R7">
-        <v>541.373437600392</v>
+        <v>448.133622908172</v>
       </c>
       <c r="S7">
-        <v>0.006735933768461522</v>
+        <v>0.005223297260214469</v>
       </c>
       <c r="T7">
-        <v>0.006865632695684799</v>
+        <v>0.005334807017279686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H8">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I8">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J8">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>30.928926</v>
       </c>
       <c r="O8">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P8">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q8">
         <v>33.20943255658933</v>
       </c>
       <c r="R8">
-        <v>298.884893009304</v>
+        <v>298.8848930093039</v>
       </c>
       <c r="S8">
-        <v>0.003718817185837716</v>
+        <v>0.003483703437925017</v>
       </c>
       <c r="T8">
-        <v>0.003790422195049794</v>
+        <v>0.00355807541116292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H9">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I9">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J9">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N9">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O9">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P9">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q9">
-        <v>246.1132540043764</v>
+        <v>302.7724213131129</v>
       </c>
       <c r="R9">
-        <v>2215.019286039388</v>
+        <v>2724.951791818016</v>
       </c>
       <c r="S9">
-        <v>0.02755994692454679</v>
+        <v>0.03176113663610577</v>
       </c>
       <c r="T9">
-        <v>0.0280906076574626</v>
+        <v>0.03243919045038589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H10">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I10">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J10">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N10">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O10">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P10">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q10">
-        <v>23.59596011294</v>
+        <v>19.54944351178867</v>
       </c>
       <c r="R10">
-        <v>141.57576067764</v>
+        <v>117.296661070732</v>
       </c>
       <c r="S10">
-        <v>0.002642293325392324</v>
+        <v>0.00205075661727999</v>
       </c>
       <c r="T10">
-        <v>0.001795446735867242</v>
+        <v>0.00139635818112189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H11">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I11">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J11">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N11">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O11">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P11">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q11">
-        <v>325.8505045927578</v>
+        <v>354.1562894748084</v>
       </c>
       <c r="R11">
-        <v>2932.65454133482</v>
+        <v>3187.406605273276</v>
       </c>
       <c r="S11">
-        <v>0.03648898409897706</v>
+        <v>0.03715135695570189</v>
       </c>
       <c r="T11">
-        <v>0.03719157148415342</v>
+        <v>0.03794448409022829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H12">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I12">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J12">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N12">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O12">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P12">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q12">
-        <v>262.7742917458166</v>
+        <v>290.8144166685714</v>
       </c>
       <c r="R12">
-        <v>2364.968625712349</v>
+        <v>2617.329750017142</v>
       </c>
       <c r="S12">
-        <v>0.02942566243718552</v>
+        <v>0.03050672971963929</v>
       </c>
       <c r="T12">
-        <v>0.02999224711306319</v>
+        <v>0.03115800378091137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H13">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I13">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J13">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>30.928926</v>
       </c>
       <c r="O13">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P13">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q13">
-        <v>145.0741034177166</v>
+        <v>193.9600854929826</v>
       </c>
       <c r="R13">
-        <v>1305.66693075945</v>
+        <v>1745.640769436844</v>
       </c>
       <c r="S13">
-        <v>0.01624550699836501</v>
+        <v>0.02034661132799341</v>
       </c>
       <c r="T13">
-        <v>0.01655831067225971</v>
+        <v>0.02078098172149306</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H14">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I14">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J14">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N14">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O14">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P14">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q14">
-        <v>1075.136095838447</v>
+        <v>1768.345924692908</v>
       </c>
       <c r="R14">
-        <v>9676.224862546023</v>
+        <v>15915.11332223618</v>
       </c>
       <c r="S14">
-        <v>0.1203945470463982</v>
+        <v>0.1855012959584896</v>
       </c>
       <c r="T14">
-        <v>0.122712717641923</v>
+        <v>0.1894614773184846</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H15">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I15">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J15">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N15">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O15">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P15">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q15">
-        <v>103.078026155125</v>
+        <v>114.1787571475503</v>
       </c>
       <c r="R15">
-        <v>618.4681569307501</v>
+        <v>685.072542885302</v>
       </c>
       <c r="S15">
-        <v>0.01154275474278917</v>
+        <v>0.01197746839350928</v>
       </c>
       <c r="T15">
-        <v>0.007843338635682999</v>
+        <v>0.008155446550546033</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H16">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I16">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J16">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N16">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O16">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P16">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q16">
-        <v>1423.465147182264</v>
+        <v>2068.454017314476</v>
       </c>
       <c r="R16">
-        <v>12811.18632464037</v>
+        <v>18616.08615583029</v>
       </c>
       <c r="S16">
-        <v>0.159400695683735</v>
+        <v>0.2169829417900873</v>
       </c>
       <c r="T16">
-        <v>0.1624699211154966</v>
+        <v>0.2216152102444612</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H17">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I17">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J17">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N17">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O17">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P17">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q17">
-        <v>17.685319555045</v>
+        <v>23.3033236443165</v>
       </c>
       <c r="R17">
-        <v>106.11191733027</v>
+        <v>139.819941865899</v>
       </c>
       <c r="S17">
-        <v>0.001980415358987625</v>
+        <v>0.00244454248221344</v>
       </c>
       <c r="T17">
-        <v>0.001345698548221452</v>
+        <v>0.001664486592595357</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H18">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I18">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J18">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>30.928926</v>
       </c>
       <c r="O18">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P18">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q18">
-        <v>9.763823778415</v>
+        <v>15.542264713353</v>
       </c>
       <c r="R18">
-        <v>58.58294267049</v>
+        <v>93.25358828011798</v>
       </c>
       <c r="S18">
-        <v>0.001093360315771374</v>
+        <v>0.00163039946324844</v>
       </c>
       <c r="T18">
-        <v>0.00074294181921949</v>
+        <v>0.001110137404809783</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H19">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I19">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J19">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N19">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O19">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P19">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q19">
-        <v>72.35915391015084</v>
+        <v>141.699774964012</v>
       </c>
       <c r="R19">
-        <v>434.154923460905</v>
+        <v>850.198649784072</v>
       </c>
       <c r="S19">
-        <v>0.008102832370146988</v>
+        <v>0.01486445130774699</v>
       </c>
       <c r="T19">
-        <v>0.005505900420082897</v>
+        <v>0.01012119040190651</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H20">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I20">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J20">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N20">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O20">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P20">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q20">
-        <v>6.937390334287501</v>
+        <v>9.14928689435475</v>
       </c>
       <c r="R20">
-        <v>27.74956133715001</v>
+        <v>36.597147577419</v>
       </c>
       <c r="S20">
-        <v>0.0007768541770790922</v>
+        <v>0.0009597695520425777</v>
       </c>
       <c r="T20">
-        <v>0.0003519165928267736</v>
+        <v>0.0004356707681102561</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H21">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I21">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J21">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N21">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O21">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P21">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q21">
-        <v>95.80250730059585</v>
+        <v>165.7478125088945</v>
       </c>
       <c r="R21">
-        <v>574.815043803575</v>
+        <v>994.486875053367</v>
       </c>
       <c r="S21">
-        <v>0.01072803668020243</v>
+        <v>0.01738711503973642</v>
       </c>
       <c r="T21">
-        <v>0.00728973511556426</v>
+        <v>0.01183886967730245</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H22">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I22">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J22">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N22">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O22">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P22">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q22">
-        <v>417.2749616325478</v>
+        <v>250.4180256433744</v>
       </c>
       <c r="R22">
-        <v>3755.474654692931</v>
+        <v>2253.76223079037</v>
       </c>
       <c r="S22">
-        <v>0.04672676342465823</v>
+        <v>0.02626910698837348</v>
       </c>
       <c r="T22">
-        <v>0.04762647700515239</v>
+        <v>0.02682991400215493</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H23">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I23">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J23">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>30.928926</v>
       </c>
       <c r="O23">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P23">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q23">
-        <v>230.3718165704759</v>
+        <v>167.0175165976287</v>
       </c>
       <c r="R23">
-        <v>2073.346349134284</v>
+        <v>1503.157649378658</v>
       </c>
       <c r="S23">
-        <v>0.02579720894463021</v>
+        <v>0.01752030829715007</v>
       </c>
       <c r="T23">
-        <v>0.02629392854438919</v>
+        <v>0.01789434125460857</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H24">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I24">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J24">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N24">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O24">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P24">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q24">
-        <v>1707.272694601022</v>
+        <v>1522.708881454026</v>
       </c>
       <c r="R24">
-        <v>15365.4542514092</v>
+        <v>13704.37993308623</v>
       </c>
       <c r="S24">
-        <v>0.191181677879467</v>
+        <v>0.1597337189137792</v>
       </c>
       <c r="T24">
-        <v>0.1948628391524313</v>
+        <v>0.1631438001907671</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H25">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I25">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J25">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N25">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O25">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P25">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q25">
-        <v>163.68374213199</v>
+        <v>98.31843710791486</v>
       </c>
       <c r="R25">
-        <v>982.10245279194</v>
+        <v>589.910622647489</v>
       </c>
       <c r="S25">
-        <v>0.01832942831062901</v>
+        <v>0.01031370460126387</v>
       </c>
       <c r="T25">
-        <v>0.01245490495486345</v>
+        <v>0.007022591406654002</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H26">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I26">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J26">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N26">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O26">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P26">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q26">
-        <v>2260.40515885133</v>
+        <v>1781.129618963542</v>
       </c>
       <c r="R26">
-        <v>20343.64642966197</v>
+        <v>16030.16657067188</v>
       </c>
       <c r="S26">
-        <v>0.2531218664266112</v>
+        <v>0.1868423185611524</v>
       </c>
       <c r="T26">
-        <v>0.2579956724438255</v>
+        <v>0.1908311287923741</v>
       </c>
     </row>
   </sheetData>
